--- a/inst/resources/fims_var_names.xlsx
+++ b/inst/resources/fims_var_names.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>module_name</t>
   </si>
@@ -230,13 +230,13 @@
     <t>log_recruitment_deviations</t>
   </si>
   <si>
-    <t>log_R0</t>
-  </si>
-  <si>
     <t>fishing_mortality</t>
   </si>
   <si>
-    <t>q</t>
+    <t>log_recruitment_unfished</t>
+  </si>
+  <si>
+    <t>catchability</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,9 +697,6 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -901,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -949,7 +946,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -965,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -973,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
